--- a/excel/WEBSITE REQUIREMENTS.xlsx
+++ b/excel/WEBSITE REQUIREMENTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shreebalajigurukul\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA0E2F7-1DD9-4635-98C3-3EDA31DB613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7FD86-FC79-48CB-BF39-C299B8314BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -325,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,472 +609,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>4</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>5</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="5">
+        <v>5</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1091,8 +1091,9 @@
     <hyperlink ref="F40" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F30" r:id="rId9" xr:uid="{1675D9BE-272A-41DE-9A37-0F4A2C03155D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/excel/WEBSITE REQUIREMENTS.xlsx
+++ b/excel/WEBSITE REQUIREMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shreebalajigurukul\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7FD86-FC79-48CB-BF39-C299B8314BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55732D07-C168-49DB-B529-9727886B69FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/WEBSITE REQUIREMENTS.xlsx
+++ b/excel/WEBSITE REQUIREMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shreebalajigurukul\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55732D07-C168-49DB-B529-9727886B69FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1845B-F75A-45B9-9DCA-671710E8FCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
